--- a/Project1/CalendarExport.xlsx
+++ b/Project1/CalendarExport.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLPU\Desarrollo\Rep-Git-1\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trabajo personal\Tesis_2024\development\Rep-Git-1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558EF60-648C-4E78-9133-2A84A4E8ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="127">
   <si>
     <t>Galán Prado, Fabio</t>
   </si>
@@ -286,13 +288,127 @@
   </si>
   <si>
     <t>lunes, viernes</t>
+  </si>
+  <si>
+    <t>Descripción base de datos.</t>
+  </si>
+  <si>
+    <t>CALENDARIO</t>
+  </si>
+  <si>
+    <t>Dia_year</t>
+  </si>
+  <si>
+    <t>Dia_semana</t>
+  </si>
+  <si>
+    <t>Lectivo</t>
+  </si>
+  <si>
+    <t>Modo_trabajo</t>
+  </si>
+  <si>
+    <t>Personas_T1</t>
+  </si>
+  <si>
+    <t>Personas_T2</t>
+  </si>
+  <si>
+    <t>Personas_T3</t>
+  </si>
+  <si>
+    <t>Personas_vacaciones</t>
+  </si>
+  <si>
+    <t>Personas_baja</t>
+  </si>
+  <si>
+    <t>Personas_medico</t>
+  </si>
+  <si>
+    <t>Personas_teletrabajo</t>
+  </si>
+  <si>
+    <t>Personas_teletrabajo_tarde</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo_horario</t>
+  </si>
+  <si>
+    <t>Conciliacion</t>
+  </si>
+  <si>
+    <t>D_teletrabajo</t>
+  </si>
+  <si>
+    <t>ND_campaign</t>
+  </si>
+  <si>
+    <t>Tipo_T</t>
+  </si>
+  <si>
+    <t>T1_H1</t>
+  </si>
+  <si>
+    <t>RECUENTO</t>
+  </si>
+  <si>
+    <t>MNT_M</t>
+  </si>
+  <si>
+    <t>DEV_MNT_M</t>
+  </si>
+  <si>
+    <t>MNT_T</t>
+  </si>
+  <si>
+    <t>DEV_MNT_T</t>
+  </si>
+  <si>
+    <t>CI_M</t>
+  </si>
+  <si>
+    <t>DEV_CI_M</t>
+  </si>
+  <si>
+    <t>CI_T</t>
+  </si>
+  <si>
+    <t>DEV_CI_T</t>
+  </si>
+  <si>
+    <t>CE_M</t>
+  </si>
+  <si>
+    <t>DEV_CE_M</t>
+  </si>
+  <si>
+    <t>CE_T</t>
+  </si>
+  <si>
+    <t>DEV_CE_T</t>
+  </si>
+  <si>
+    <t>TOTAL_M</t>
+  </si>
+  <si>
+    <t>DEV_TOTAL_M</t>
+  </si>
+  <si>
+    <t>TOTAL_T</t>
+  </si>
+  <si>
+    <t>DEV_TOTAL_T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +458,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +594,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -743,13 +871,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -766,8 +895,8 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,13 +949,13 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
@@ -839,9 +968,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Énfasis2" xfId="4" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="3" builtinId="10"/>
     <cellStyle name="Salida" xfId="2" builtinId="21"/>
@@ -1143,28 +1274,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="2.42578125" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.140625" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" customWidth="1"/>
+    <col min="2" max="32" width="3.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="2.44140625" customWidth="1"/>
+    <col min="37" max="37" width="16.88671875" customWidth="1"/>
+    <col min="38" max="38" width="13.109375" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" customWidth="1"/>
+    <col min="41" max="41" width="12.5546875" customWidth="1"/>
     <col min="42" max="42" width="18" customWidth="1"/>
     <col min="48" max="48" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1262,7 +1393,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1506,7 @@
       <c r="AP3" s="64"/>
       <c r="AQ3" s="64"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +1631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1748,7 @@
       <c r="AP5" s="30"/>
       <c r="AQ5" s="30"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1869,7 @@
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1990,7 @@
       <c r="AP7" s="30"/>
       <c r="AQ7" s="30"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2055,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2153,8 +2284,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2243,7 +2374,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -2501,7 +2632,7 @@
       </c>
       <c r="AV14" s="62"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -2628,7 +2759,7 @@
       </c>
       <c r="AV15" s="62"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -2755,7 +2886,7 @@
       </c>
       <c r="AV16" s="62"/>
     </row>
-    <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +3015,7 @@
       </c>
       <c r="AV17" s="62"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
@@ -3013,7 +3144,7 @@
       </c>
       <c r="AV18" s="62"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -3140,7 +3271,7 @@
       </c>
       <c r="AV19" s="62"/>
     </row>
-    <row r="20" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -3259,7 +3390,7 @@
       </c>
       <c r="AV20" s="62"/>
     </row>
-    <row r="21" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AK21" s="30" t="s">
         <v>61</v>
       </c>
@@ -3291,7 +3422,7 @@
       </c>
       <c r="AV21" s="62"/>
     </row>
-    <row r="22" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -3389,7 +3520,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
@@ -3585,7 +3716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -3683,7 +3814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -3781,7 +3912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
@@ -3879,7 +4010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -3977,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>12</v>
       </c>
@@ -4173,8 +4304,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -4269,7 +4400,7 @@
         <v>45777</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -4364,7 +4495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -4459,7 +4590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
@@ -4554,7 +4685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
@@ -4649,7 +4780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
@@ -4744,7 +4875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
@@ -4839,7 +4970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -4934,7 +5065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -5029,8 +5160,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
@@ -5128,7 +5259,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -5226,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -5324,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>7</v>
       </c>
@@ -5422,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>8</v>
       </c>
@@ -5520,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
@@ -5618,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>10</v>
       </c>
@@ -5716,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -5814,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>12</v>
       </c>
@@ -5912,8 +6043,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>20</v>
       </c>
@@ -6008,7 +6139,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
@@ -6103,7 +6234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>6</v>
       </c>
@@ -6198,7 +6329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>7</v>
       </c>
@@ -6293,7 +6424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>8</v>
       </c>
@@ -6388,7 +6519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>9</v>
       </c>
@@ -6483,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
@@ -6578,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -6673,7 +6804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>12</v>
       </c>
@@ -6768,8 +6899,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>21</v>
       </c>
@@ -6867,7 +6998,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -6965,7 +7096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
@@ -7063,7 +7194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
@@ -7161,7 +7292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
@@ -7259,7 +7390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
@@ -7357,7 +7488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -7455,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -7553,7 +7684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>12</v>
       </c>
@@ -7651,8 +7782,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:34" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>22</v>
       </c>
@@ -7752,7 +7883,7 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -7852,7 +7983,7 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
@@ -7952,7 +8083,7 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
@@ -8052,7 +8183,7 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
@@ -8152,7 +8283,7 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
@@ -8252,7 +8383,7 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
@@ -8352,7 +8483,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -8452,7 +8583,7 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>12</v>
       </c>
@@ -8552,11 +8683,11 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>23</v>
       </c>
@@ -8653,7 +8784,7 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
-    <row r="83" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8881,7 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
     </row>
-    <row r="84" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
@@ -8847,7 +8978,7 @@
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
     </row>
-    <row r="85" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>7</v>
       </c>
@@ -8944,7 +9075,7 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
     </row>
-    <row r="86" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>8</v>
       </c>
@@ -9041,7 +9172,7 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
     </row>
-    <row r="87" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>9</v>
       </c>
@@ -9138,7 +9269,7 @@
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
     </row>
-    <row r="88" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>10</v>
       </c>
@@ -9235,7 +9366,7 @@
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
     </row>
-    <row r="89" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -9332,7 +9463,7 @@
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
     </row>
-    <row r="90" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>12</v>
       </c>
@@ -9429,8 +9560,8 @@
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
     </row>
-    <row r="91" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:34" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>24</v>
       </c>
@@ -9528,7 +9659,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>0</v>
       </c>
@@ -9626,7 +9757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>6</v>
       </c>
@@ -9724,7 +9855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>7</v>
       </c>
@@ -9822,7 +9953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>8</v>
       </c>
@@ -9920,7 +10051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>9</v>
       </c>
@@ -10018,7 +10149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
@@ -10116,7 +10247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
@@ -10214,7 +10345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>12</v>
       </c>
@@ -10312,8 +10443,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>25</v>
       </c>
@@ -10408,7 +10539,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>0</v>
       </c>
@@ -10503,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>6</v>
       </c>
@@ -10598,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>7</v>
       </c>
@@ -10693,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>8</v>
       </c>
@@ -10788,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>9</v>
       </c>
@@ -10883,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>10</v>
       </c>
@@ -10978,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>11</v>
       </c>
@@ -11073,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>12</v>
       </c>
@@ -11168,8 +11299,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>26</v>
       </c>
@@ -11267,7 +11398,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>0</v>
       </c>
@@ -11365,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>6</v>
       </c>
@@ -11463,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>7</v>
       </c>
@@ -11561,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>8</v>
       </c>
@@ -11659,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>9</v>
       </c>
@@ -11757,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>10</v>
       </c>
@@ -11855,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>11</v>
       </c>
@@ -11953,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
         <v>12</v>
       </c>
@@ -12059,4 +12190,221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165DA2ED-C87A-4C00-9B65-A2E12C85A25E}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D18" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project1/CalendarExport.xlsx
+++ b/Project1/CalendarExport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trabajo personal\Tesis_2024\development\Rep-Git-1\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLPU\Desarrollo\Rep-Git-1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558EF60-648C-4E78-9133-2A84A4E8ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,6 +955,7 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
@@ -968,7 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1274,28 +1273,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV120"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="2.44140625" customWidth="1"/>
-    <col min="37" max="37" width="16.88671875" customWidth="1"/>
-    <col min="38" max="38" width="13.109375" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" customWidth="1"/>
-    <col min="41" max="41" width="12.5546875" customWidth="1"/>
+    <col min="2" max="32" width="3.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="2.42578125" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.140625" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" customWidth="1"/>
     <col min="42" max="42" width="18" customWidth="1"/>
     <col min="48" max="48" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1496,17 +1495,17 @@
       <c r="AI3" t="s">
         <v>41</v>
       </c>
-      <c r="AK3" s="63" t="s">
+      <c r="AK3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1748,7 +1747,7 @@
       <c r="AP5" s="30"/>
       <c r="AQ5" s="30"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1868,7 @@
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -1990,7 +1989,7 @@
       <c r="AP7" s="30"/>
       <c r="AQ7" s="30"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2284,8 +2283,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -2501,11 +2500,11 @@
       <c r="AU13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AV13" s="61" t="s">
+      <c r="AV13" s="62" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -2630,9 +2629,9 @@
       <c r="AU14" s="30">
         <v>0</v>
       </c>
-      <c r="AV14" s="62"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AV14" s="63"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -2757,9 +2756,9 @@
       <c r="AU15" s="30">
         <v>0</v>
       </c>
-      <c r="AV15" s="62"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AV15" s="63"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -2884,9 +2883,9 @@
       <c r="AU16" s="30">
         <v>0</v>
       </c>
-      <c r="AV16" s="62"/>
-    </row>
-    <row r="17" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV16" s="63"/>
+    </row>
+    <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -3013,9 +3012,9 @@
       <c r="AU17" s="30">
         <v>0</v>
       </c>
-      <c r="AV17" s="62"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AV17" s="63"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
@@ -3142,9 +3141,9 @@
       <c r="AU18" s="30">
         <v>0</v>
       </c>
-      <c r="AV18" s="62"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AV18" s="63"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -3269,9 +3268,9 @@
       <c r="AU19" s="30">
         <v>0</v>
       </c>
-      <c r="AV19" s="62"/>
-    </row>
-    <row r="20" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV19" s="63"/>
+    </row>
+    <row r="20" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -3388,9 +3387,9 @@
       <c r="AU20" s="30">
         <v>0</v>
       </c>
-      <c r="AV20" s="62"/>
-    </row>
-    <row r="21" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV20" s="63"/>
+    </row>
+    <row r="21" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AK21" s="30" t="s">
         <v>61</v>
       </c>
@@ -3420,9 +3419,9 @@
       <c r="AU21" s="30">
         <v>0</v>
       </c>
-      <c r="AV21" s="62"/>
-    </row>
-    <row r="22" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
+      <c r="AV21" s="63"/>
+    </row>
+    <row r="22" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
@@ -4020,11 +4019,11 @@
       <c r="C28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
+      <c r="D28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>27</v>
@@ -4108,7 +4107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>12</v>
       </c>
@@ -4304,8 +4303,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:48" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:48" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>45777</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -5160,8 +5159,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>7</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>8</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>10</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>12</v>
       </c>
@@ -6043,8 +6042,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>20</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>6</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>7</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>8</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>9</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>12</v>
       </c>
@@ -6899,8 +6898,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>21</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -7096,7 +7095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>6</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>9</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>12</v>
       </c>
@@ -7782,8 +7781,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:34" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>22</v>
       </c>
@@ -7883,7 +7882,7 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -7983,7 +7982,7 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>6</v>
       </c>
@@ -8083,7 +8082,7 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
@@ -8183,7 +8182,7 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>8</v>
       </c>
@@ -8283,7 +8282,7 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>9</v>
       </c>
@@ -8383,7 +8382,7 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>10</v>
       </c>
@@ -8483,7 +8482,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -8583,7 +8582,7 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>12</v>
       </c>
@@ -8683,11 +8682,11 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:34" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>23</v>
       </c>
@@ -8784,7 +8783,7 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
-    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
@@ -8881,7 +8880,7 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
     </row>
-    <row r="84" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
@@ -8978,7 +8977,7 @@
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
     </row>
-    <row r="85" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>7</v>
       </c>
@@ -9075,7 +9074,7 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
     </row>
-    <row r="86" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>8</v>
       </c>
@@ -9172,7 +9171,7 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
     </row>
-    <row r="87" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>9</v>
       </c>
@@ -9269,7 +9268,7 @@
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
     </row>
-    <row r="88" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>10</v>
       </c>
@@ -9366,7 +9365,7 @@
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
     </row>
-    <row r="89" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -9463,7 +9462,7 @@
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
     </row>
-    <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>12</v>
       </c>
@@ -9560,8 +9559,8 @@
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
     </row>
-    <row r="91" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:34" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>24</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>0</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>6</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>7</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>8</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>9</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>10</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>12</v>
       </c>
@@ -10443,8 +10442,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>25</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>45991</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>0</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>6</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>7</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>8</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>9</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>10</v>
       </c>
@@ -11109,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>11</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>12</v>
       </c>
@@ -11299,8 +11298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:32" ht="43.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>26</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>0</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>6</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>7</v>
       </c>
@@ -11692,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>8</v>
       </c>
@@ -11790,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>9</v>
       </c>
@@ -11888,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>10</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>11</v>
       </c>
@@ -12084,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>12</v>
       </c>
@@ -12193,43 +12192,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165DA2ED-C87A-4C00-9B65-A2E12C85A25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="65" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="30" t="s">
         <v>91</v>
       </c>
@@ -12243,7 +12242,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="30" t="s">
         <v>92</v>
       </c>
@@ -12257,7 +12256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="30" t="s">
         <v>93</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="30" t="s">
         <v>94</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="30" t="s">
         <v>95</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="30" t="s">
         <v>96</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="30" t="s">
         <v>97</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="30" t="s">
         <v>98</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="30" t="s">
         <v>99</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="30" t="s">
         <v>100</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="30" t="s">
         <v>101</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="30" t="s">
         <v>102</v>
       </c>
@@ -12379,27 +12378,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J19" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J20" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J21" s="30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J22" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J23" s="30" t="s">
         <v>126</v>
       </c>

--- a/Project1/CalendarExport.xlsx
+++ b/Project1/CalendarExport.xlsx
@@ -439,6 +439,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1276,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,8 +3661,8 @@
       <c r="N24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="20" t="s">
-        <v>3</v>
+      <c r="O24" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>1</v>
@@ -3678,8 +3679,8 @@
       <c r="T24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>16</v>
+      <c r="U24" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="V24" s="20" t="s">
         <v>3</v>
@@ -3699,8 +3700,8 @@
       <c r="AA24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB24" s="4" t="s">
-        <v>16</v>
+      <c r="AB24" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AC24" s="20" t="s">
         <v>3</v>
@@ -3734,8 +3735,8 @@
       <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
+      <c r="G25" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>3</v>
@@ -3752,8 +3753,8 @@
       <c r="L25" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>16</v>
+      <c r="M25" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>16</v>
@@ -3779,8 +3780,8 @@
       <c r="U25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="20" t="s">
-        <v>3</v>
+      <c r="V25" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>1</v>
@@ -3800,8 +3801,8 @@
       <c r="AB25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AC25" s="20" t="s">
-        <v>3</v>
+      <c r="AC25" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>1</v>
@@ -3813,7 +3814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -3871,8 +3872,8 @@
       <c r="S26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="4" t="s">
-        <v>16</v>
+      <c r="T26" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="U26" s="27" t="s">
         <v>27</v>
@@ -4107,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -4117,14 +4118,14 @@
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>29</v>
+      <c r="D29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>16</v>
@@ -4144,8 +4145,8 @@
       <c r="L29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="29" t="s">
-        <v>29</v>
+      <c r="M29" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>16</v>
@@ -4165,8 +4166,8 @@
       <c r="S29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T29" s="29" t="s">
-        <v>29</v>
+      <c r="T29" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>16</v>
@@ -4186,8 +4187,8 @@
       <c r="Z29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA29" s="29" t="s">
-        <v>29</v>
+      <c r="AA29" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AB29" s="4" t="s">
         <v>16</v>
@@ -4504,8 +4505,8 @@
       <c r="C34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>16</v>
+      <c r="D34" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>3</v>
@@ -4525,8 +4526,8 @@
       <c r="J34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>16</v>
+      <c r="K34" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="L34" s="19" t="s">
         <v>3</v>
@@ -4570,8 +4571,8 @@
       <c r="Y34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z34" s="19" t="s">
-        <v>3</v>
+      <c r="Z34" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AA34" s="2" t="s">
         <v>1</v>
@@ -4602,8 +4603,8 @@
       <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>3</v>
+      <c r="E35" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -4623,8 +4624,8 @@
       <c r="K35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="19" t="s">
-        <v>3</v>
+      <c r="L35" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>1</v>
@@ -4665,8 +4666,8 @@
       <c r="Y35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z35" s="19" t="s">
-        <v>3</v>
+      <c r="Z35" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>1</v>
@@ -4976,8 +4977,8 @@
       <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>29</v>
+      <c r="C39" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>16</v>
@@ -4997,8 +4998,8 @@
       <c r="I39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="29" t="s">
-        <v>29</v>
+      <c r="J39" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>16</v>
@@ -5012,14 +5013,14 @@
       <c r="N39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="P39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>16</v>
+      <c r="O39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>1</v>
@@ -5042,8 +5043,8 @@
       <c r="X39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y39" s="4" t="s">
-        <v>16</v>
+      <c r="Y39" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="Z39" s="19" t="s">
         <v>3</v>
@@ -5060,8 +5061,8 @@
       <c r="AD39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE39" s="29" t="s">
-        <v>29</v>
+      <c r="AE39" s="27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5363,8 +5364,8 @@
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>3</v>
+      <c r="C44" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>1</v>
@@ -5381,8 +5382,8 @@
       <c r="H44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>16</v>
+      <c r="I44" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="J44" s="21" t="s">
         <v>3</v>
@@ -5402,8 +5403,8 @@
       <c r="O44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>16</v>
+      <c r="P44" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Q44" s="21" t="s">
         <v>3</v>
@@ -5423,8 +5424,8 @@
       <c r="V44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="4" t="s">
-        <v>16</v>
+      <c r="W44" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="X44" s="21" t="s">
         <v>3</v>
@@ -5444,8 +5445,8 @@
       <c r="AC44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD44" s="4" t="s">
-        <v>16</v>
+      <c r="AD44" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AE44" s="21" t="s">
         <v>3</v>
@@ -5454,15 +5455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>3</v>
+      <c r="C45" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>1</v>
@@ -5482,8 +5483,8 @@
       <c r="I45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="21" t="s">
-        <v>3</v>
+      <c r="J45" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>1</v>
@@ -5503,8 +5504,8 @@
       <c r="P45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="21" t="s">
-        <v>3</v>
+      <c r="Q45" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>1</v>
@@ -5524,8 +5525,8 @@
       <c r="W45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X45" s="21" t="s">
-        <v>3</v>
+      <c r="X45" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Y45" s="2" t="s">
         <v>1</v>
@@ -5545,8 +5546,8 @@
       <c r="AD45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE45" s="21" t="s">
-        <v>3</v>
+      <c r="AE45" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AF45" s="24" t="s">
         <v>1</v>
@@ -5868,8 +5869,8 @@
       <c r="G49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>29</v>
+      <c r="H49" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>16</v>
@@ -5889,8 +5890,8 @@
       <c r="N49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="29" t="s">
-        <v>29</v>
+      <c r="O49" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>16</v>
@@ -5910,8 +5911,8 @@
       <c r="U49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V49" s="29" t="s">
-        <v>29</v>
+      <c r="V49" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="W49" s="4" t="s">
         <v>16</v>
@@ -5931,8 +5932,8 @@
       <c r="AB49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AC49" s="29" t="s">
-        <v>29</v>
+      <c r="AC49" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AD49" s="4" t="s">
         <v>16</v>
@@ -6249,8 +6250,8 @@
       <c r="E54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>3</v>
+      <c r="F54" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>3</v>
@@ -6267,8 +6268,8 @@
       <c r="K54" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="21" t="s">
-        <v>3</v>
+      <c r="L54" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>1</v>
@@ -6291,8 +6292,8 @@
       <c r="S54" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="T54" s="21" t="s">
-        <v>3</v>
+      <c r="T54" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="U54" s="21" t="s">
         <v>3</v>
@@ -6312,8 +6313,8 @@
       <c r="Z54" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AA54" s="21" t="s">
-        <v>3</v>
+      <c r="AA54" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AB54" s="21" t="s">
         <v>3</v>
@@ -6347,8 +6348,8 @@
       <c r="F55" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="21" t="s">
-        <v>3</v>
+      <c r="G55" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>1</v>
@@ -6368,8 +6369,8 @@
       <c r="M55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N55" s="21" t="s">
-        <v>3</v>
+      <c r="N55" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>1</v>
@@ -6389,8 +6390,8 @@
       <c r="T55" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="21" t="s">
-        <v>3</v>
+      <c r="U55" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>1</v>
@@ -6410,8 +6411,8 @@
       <c r="AA55" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AB55" s="21" t="s">
-        <v>3</v>
+      <c r="AB55" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AC55" s="2" t="s">
         <v>1</v>
@@ -6721,8 +6722,8 @@
       <c r="D59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="29" t="s">
-        <v>29</v>
+      <c r="E59" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>3</v>
@@ -6742,8 +6743,8 @@
       <c r="K59" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="29" t="s">
-        <v>29</v>
+      <c r="L59" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>1</v>
@@ -6763,8 +6764,8 @@
       <c r="R59" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="29" t="s">
-        <v>29</v>
+      <c r="S59" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="T59" s="21" t="s">
         <v>3</v>
@@ -6784,8 +6785,8 @@
       <c r="Y59" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Z59" s="29" t="s">
-        <v>29</v>
+      <c r="Z59" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AA59" s="21" t="s">
         <v>3</v>
@@ -7105,8 +7106,8 @@
       <c r="C64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="21" t="s">
-        <v>3</v>
+      <c r="D64" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>3</v>
@@ -7126,8 +7127,8 @@
       <c r="J64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="21" t="s">
-        <v>3</v>
+      <c r="K64" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="L64" s="21" t="s">
         <v>3</v>
@@ -7147,8 +7148,8 @@
       <c r="Q64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R64" s="21" t="s">
-        <v>3</v>
+      <c r="R64" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="S64" s="21" t="s">
         <v>3</v>
@@ -7168,8 +7169,8 @@
       <c r="X64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y64" s="21" t="s">
-        <v>3</v>
+      <c r="Y64" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="Z64" s="21" t="s">
         <v>3</v>
@@ -7189,8 +7190,8 @@
       <c r="AE64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF64" s="22" t="s">
-        <v>3</v>
+      <c r="AF64" s="43" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7206,8 +7207,8 @@
       <c r="D65" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>3</v>
+      <c r="E65" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>1</v>
@@ -7227,8 +7228,8 @@
       <c r="K65" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L65" s="21" t="s">
-        <v>3</v>
+      <c r="L65" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>1</v>
@@ -7248,8 +7249,8 @@
       <c r="R65" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S65" s="21" t="s">
-        <v>3</v>
+      <c r="S65" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>1</v>
@@ -7269,8 +7270,8 @@
       <c r="Y65" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Z65" s="21" t="s">
-        <v>3</v>
+      <c r="Z65" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AA65" s="2" t="s">
         <v>1</v>
@@ -7592,8 +7593,8 @@
       <c r="B69" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>29</v>
+      <c r="C69" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>3</v>
@@ -7613,8 +7614,8 @@
       <c r="I69" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J69" s="29" t="s">
-        <v>29</v>
+      <c r="J69" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>3</v>
@@ -7634,8 +7635,8 @@
       <c r="P69" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q69" s="29" t="s">
-        <v>29</v>
+      <c r="Q69" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="R69" s="21" t="s">
         <v>3</v>
@@ -7655,8 +7656,8 @@
       <c r="W69" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="X69" s="29" t="s">
-        <v>29</v>
+      <c r="X69" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Y69" s="21" t="s">
         <v>3</v>
@@ -7676,8 +7677,8 @@
       <c r="AD69" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AE69" s="29" t="s">
-        <v>29</v>
+      <c r="AE69" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AF69" s="22" t="s">
         <v>3</v>
@@ -8004,8 +8005,8 @@
       <c r="G74" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H74" s="21" t="s">
-        <v>3</v>
+      <c r="H74" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="I74" s="21" t="s">
         <v>3</v>
@@ -8025,8 +8026,8 @@
       <c r="N74" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O74" s="21" t="s">
-        <v>3</v>
+      <c r="O74" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>1</v>
@@ -8046,8 +8047,8 @@
       <c r="U74" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="V74" s="21" t="s">
-        <v>3</v>
+      <c r="V74" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="W74" s="21" t="s">
         <v>3</v>
@@ -8067,8 +8068,8 @@
       <c r="AB74" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AC74" s="21" t="s">
-        <v>3</v>
+      <c r="AC74" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AD74" s="21" t="s">
         <v>3</v>
@@ -8086,8 +8087,8 @@
       <c r="A75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="21" t="s">
-        <v>3</v>
+      <c r="B75" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1</v>
@@ -8107,8 +8108,8 @@
       <c r="H75" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I75" s="21" t="s">
-        <v>3</v>
+      <c r="I75" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>1</v>
@@ -8125,8 +8126,8 @@
       <c r="N75" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O75" s="21" t="s">
-        <v>3</v>
+      <c r="O75" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>1</v>
@@ -8149,8 +8150,8 @@
       <c r="V75" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="W75" s="21" t="s">
-        <v>3</v>
+      <c r="W75" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="X75" s="2" t="s">
         <v>1</v>
@@ -8167,8 +8168,8 @@
       <c r="AB75" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AC75" s="21" t="s">
-        <v>3</v>
+      <c r="AC75" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AD75" s="21" t="s">
         <v>3</v>
@@ -8501,8 +8502,8 @@
       <c r="F79" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="29" t="s">
-        <v>29</v>
+      <c r="G79" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>3</v>
@@ -8522,8 +8523,8 @@
       <c r="M79" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N79" s="29" t="s">
-        <v>29</v>
+      <c r="N79" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="O79" s="21" t="s">
         <v>3</v>
@@ -8543,8 +8544,8 @@
       <c r="T79" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="U79" s="29" t="s">
-        <v>29</v>
+      <c r="U79" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="V79" s="21" t="s">
         <v>3</v>
@@ -8564,8 +8565,8 @@
       <c r="AA79" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AB79" s="29" t="s">
-        <v>29</v>
+      <c r="AB79" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AC79" s="21" t="s">
         <v>3</v>
@@ -8893,8 +8894,8 @@
       <c r="D84" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="21" t="s">
-        <v>3</v>
+      <c r="E84" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="F84" s="21" t="s">
         <v>3</v>
@@ -8917,8 +8918,8 @@
       <c r="L84" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M84" s="21" t="s">
-        <v>3</v>
+      <c r="M84" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>1</v>
@@ -8935,8 +8936,8 @@
       <c r="R84" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S84" s="21" t="s">
-        <v>3</v>
+      <c r="S84" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="T84" s="21" t="s">
         <v>3</v>
@@ -8956,8 +8957,8 @@
       <c r="Y84" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Z84" s="21" t="s">
-        <v>3</v>
+      <c r="Z84" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AA84" s="21" t="s">
         <v>3</v>
@@ -8993,8 +8994,8 @@
       <c r="E85" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F85" s="21" t="s">
-        <v>3</v>
+      <c r="F85" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>1</v>
@@ -9014,8 +9015,8 @@
       <c r="L85" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M85" s="21" t="s">
-        <v>3</v>
+      <c r="M85" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>1</v>
@@ -9035,8 +9036,8 @@
       <c r="S85" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="T85" s="21" t="s">
-        <v>3</v>
+      <c r="T85" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>1</v>
@@ -9056,8 +9057,8 @@
       <c r="Z85" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AA85" s="21" t="s">
-        <v>3</v>
+      <c r="AA85" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="AB85" s="2" t="s">
         <v>1</v>
@@ -9375,8 +9376,8 @@
       <c r="C89" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>29</v>
+      <c r="D89" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>3</v>
@@ -9399,8 +9400,8 @@
       <c r="K89" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="29" t="s">
-        <v>29</v>
+      <c r="L89" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="M89" s="21" t="s">
         <v>3</v>
@@ -9417,8 +9418,8 @@
       <c r="Q89" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="29" t="s">
-        <v>29</v>
+      <c r="R89" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="S89" s="21" t="s">
         <v>3</v>
@@ -9438,8 +9439,8 @@
       <c r="X89" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y89" s="29" t="s">
-        <v>29</v>
+      <c r="Y89" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Z89" s="21" t="s">
         <v>3</v>
@@ -9763,8 +9764,8 @@
       <c r="B94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>16</v>
+      <c r="C94" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>3</v>
@@ -9784,8 +9785,8 @@
       <c r="I94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>16</v>
+      <c r="J94" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>3</v>
@@ -9808,8 +9809,8 @@
       <c r="Q94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="21" t="s">
-        <v>3</v>
+      <c r="R94" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>1</v>
@@ -9826,8 +9827,8 @@
       <c r="W94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X94" s="4" t="s">
-        <v>16</v>
+      <c r="X94" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Y94" s="21" t="s">
         <v>3</v>
@@ -9847,14 +9848,14 @@
       <c r="AD94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE94" s="4" t="s">
-        <v>16</v>
+      <c r="AE94" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AF94" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>7</v>
       </c>
@@ -9864,8 +9865,8 @@
       <c r="C95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="21" t="s">
-        <v>3</v>
+      <c r="D95" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>1</v>
@@ -9885,8 +9886,8 @@
       <c r="J95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K95" s="21" t="s">
-        <v>3</v>
+      <c r="K95" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>1</v>
@@ -9906,8 +9907,8 @@
       <c r="Q95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R95" s="21" t="s">
-        <v>3</v>
+      <c r="R95" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>1</v>
@@ -9927,8 +9928,8 @@
       <c r="X95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Y95" s="21" t="s">
-        <v>3</v>
+      <c r="Y95" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Z95" s="2" t="s">
         <v>1</v>
@@ -9948,8 +9949,8 @@
       <c r="AE95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF95" s="22" t="s">
-        <v>3</v>
+      <c r="AF95" s="27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10250,8 +10251,8 @@
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>29</v>
+      <c r="B99" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>16</v>
@@ -10271,8 +10272,8 @@
       <c r="H99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I99" s="29" t="s">
-        <v>29</v>
+      <c r="I99" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>16</v>
@@ -10292,11 +10293,11 @@
       <c r="O99" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P99" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>16</v>
+      <c r="P99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q99" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="R99" s="21" t="s">
         <v>3</v>
@@ -10313,8 +10314,8 @@
       <c r="V99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W99" s="29" t="s">
-        <v>29</v>
+      <c r="W99" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="X99" s="4" t="s">
         <v>16</v>
@@ -10334,8 +10335,8 @@
       <c r="AC99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD99" s="29" t="s">
-        <v>29</v>
+      <c r="AD99" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AE99" s="4" t="s">
         <v>16</v>
@@ -10652,8 +10653,8 @@
       <c r="F104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>16</v>
+      <c r="G104" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="H104" s="21" t="s">
         <v>3</v>
@@ -10673,8 +10674,8 @@
       <c r="M104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N104" s="4" t="s">
-        <v>16</v>
+      <c r="N104" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="O104" s="21" t="s">
         <v>3</v>
@@ -10694,8 +10695,8 @@
       <c r="T104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U104" s="4" t="s">
-        <v>16</v>
+      <c r="U104" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="V104" s="21" t="s">
         <v>3</v>
@@ -10715,8 +10716,8 @@
       <c r="AA104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB104" s="4" t="s">
-        <v>16</v>
+      <c r="AB104" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AC104" s="21" t="s">
         <v>3</v>
@@ -10728,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>7</v>
       </c>
@@ -10750,8 +10751,8 @@
       <c r="G105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H105" s="21" t="s">
-        <v>3</v>
+      <c r="H105" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>1</v>
@@ -10771,8 +10772,8 @@
       <c r="N105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O105" s="21" t="s">
-        <v>3</v>
+      <c r="O105" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>1</v>
@@ -10792,8 +10793,8 @@
       <c r="U105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V105" s="21" t="s">
-        <v>3</v>
+      <c r="V105" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="W105" s="2" t="s">
         <v>1</v>
@@ -10813,8 +10814,8 @@
       <c r="AB105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AC105" s="21" t="s">
-        <v>3</v>
+      <c r="AC105" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AD105" s="2" t="s">
         <v>1</v>
@@ -11124,8 +11125,8 @@
       <c r="E109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="29" t="s">
-        <v>29</v>
+      <c r="F109" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>16</v>
@@ -11145,8 +11146,8 @@
       <c r="L109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M109" s="29" t="s">
-        <v>29</v>
+      <c r="M109" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="N109" s="4" t="s">
         <v>16</v>
@@ -11166,8 +11167,8 @@
       <c r="S109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T109" s="29" t="s">
-        <v>29</v>
+      <c r="T109" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="U109" s="4" t="s">
         <v>16</v>
@@ -11187,8 +11188,8 @@
       <c r="Z109" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA109" s="29" t="s">
-        <v>29</v>
+      <c r="AA109" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="AB109" s="4" t="s">
         <v>16</v>
@@ -11508,8 +11509,8 @@
       <c r="D114" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="13" t="s">
-        <v>16</v>
+      <c r="E114" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="F114" s="21" t="s">
         <v>3</v>
@@ -11532,8 +11533,8 @@
       <c r="L114" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M114" s="21" t="s">
-        <v>3</v>
+      <c r="M114" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>1</v>
@@ -11550,8 +11551,8 @@
       <c r="R114" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S114" s="13" t="s">
-        <v>16</v>
+      <c r="S114" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="T114" s="21" t="s">
         <v>3</v>
@@ -11609,8 +11610,8 @@
       <c r="E115" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="21" t="s">
-        <v>3</v>
+      <c r="F115" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>1</v>
@@ -11630,8 +11631,8 @@
       <c r="L115" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M115" s="21" t="s">
-        <v>3</v>
+      <c r="M115" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>1</v>
@@ -11651,8 +11652,8 @@
       <c r="S115" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T115" s="21" t="s">
-        <v>3</v>
+      <c r="T115" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="U115" s="2" t="s">
         <v>1</v>
@@ -11995,8 +11996,8 @@
       <c r="C119" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="29" t="s">
-        <v>29</v>
+      <c r="D119" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>16</v>
@@ -12019,8 +12020,8 @@
       <c r="K119" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L119" s="29" t="s">
-        <v>29</v>
+      <c r="L119" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="M119" s="21" t="s">
         <v>3</v>
@@ -12037,8 +12038,8 @@
       <c r="Q119" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R119" s="29" t="s">
-        <v>29</v>
+      <c r="R119" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="S119" s="13" t="s">
         <v>16</v>
@@ -12055,8 +12056,8 @@
       <c r="W119" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="X119" s="29" t="s">
-        <v>29</v>
+      <c r="X119" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="Y119" s="2" t="s">
         <v>1</v>
